--- a/drag-model/simulink/ProjectTasks/orbits.xlsx
+++ b/drag-model/simulink/ProjectTasks/orbits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/islam_mansour_tum_de/Documents/GDrive/Repo/cuby/drag-model/simulink/ProjectTasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC10480361DD5CAE5ADE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE946858-6023-42B6-86FE-F52C78014DE3}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_F25DC773A252ABDACC10480361DD5CAE5ADE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6DEB631-4755-4CE0-AF7E-152D75F2A295}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbit_Scenario" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>350/410</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>2458928.872777778</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -768,6 +771,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,12 +788,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,9 +833,15 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,12 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D072466C-F647-4635-933E-B048D04B8DFA}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="15"/>
@@ -1696,22 +1699,22 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="32" t="s">
@@ -1720,56 +1723,56 @@
       <c r="H19" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="41"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="32" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="34" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="21" t="s">
@@ -2102,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C7F3D1-BE9A-4038-BFDC-046B36190F71}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.42578125" defaultRowHeight="15"/>
@@ -2138,7 +2141,9 @@
       <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="B2" s="54" t="s">
         <v>71</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="49"/>
-      <c r="G3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="48" t="s">
         <v>52</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="52"/>
-      <c r="G4" s="62"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="51" t="s">
         <v>54</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="49"/>
-      <c r="G5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="57">
         <v>0.5</v>
       </c>
@@ -2248,7 +2253,7 @@
         <v>75</v>
       </c>
       <c r="F6" s="52"/>
-      <c r="G6" s="62"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="51" t="s">
         <v>57</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="48">
         <v>2.2000000000000002</v>
       </c>
@@ -2376,9 +2381,9 @@
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="51" t="s">
         <v>61</v>
       </c>
@@ -2403,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="48">
         <v>4</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>4.5000000000000012E-2</v>
       </c>
       <c r="F12" s="52"/>
-      <c r="G12" s="62"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="51">
         <f t="shared" ref="H12" si="1">1/2*(H8*I8+H8*J8+I8*J8+H9*J9)</f>
         <v>5.000000000000001E-2</v>
@@ -2459,7 +2464,7 @@
         <v>1.1250000000000003E-2</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="58"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="48">
         <f>H12/H11</f>
         <v>1.2500000000000002E-2</v>
@@ -2482,11 +2487,11 @@
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
-      <c r="E14" s="59">
+      <c r="E14" s="61">
         <v>20</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="51">
         <v>20</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>68</v>
       </c>
       <c r="F15" s="49"/>
-      <c r="G15" s="58"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="48" t="s">
         <v>68</v>
       </c>
@@ -2532,11 +2537,11 @@
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="53"/>
-      <c r="E16" s="59">
+      <c r="E16" s="61">
         <v>1</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="51">
         <v>1</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="44"/>
-      <c r="G17" s="63"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="43">
         <v>100</v>
       </c>
@@ -2591,18 +2596,18 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
